--- a/Resource/excel/K-框架-玩家属性-(框架定义,后端维护).xlsx
+++ b/Resource/excel/K-框架-玩家属性-(框架定义,后端维护).xlsx
@@ -27,7 +27,7 @@
     <author>PCC</author>
   </authors>
   <commentList>
-    <comment ref="S4" authorId="0" shapeId="0">
+    <comment ref="T4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="135">
   <si>
     <t>#class</t>
   </si>
@@ -510,13 +510,21 @@
   </si>
   <si>
     <t>Capacity(string)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否创建</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create(int)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1067,13 +1075,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI31"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1090,30 +1098,30 @@
     <col min="10" max="10" width="22.5" style="8" customWidth="1"/>
     <col min="11" max="12" width="19.375" style="8" customWidth="1"/>
     <col min="13" max="15" width="18.25" style="8" customWidth="1"/>
-    <col min="16" max="17" width="19.25" style="8" customWidth="1"/>
-    <col min="18" max="18" width="14.875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="17.125" style="8" customWidth="1"/>
-    <col min="20" max="20" width="11" style="8" customWidth="1"/>
-    <col min="21" max="21" width="12.875" style="8" customWidth="1"/>
-    <col min="22" max="22" width="15" style="8" customWidth="1"/>
-    <col min="23" max="23" width="11" style="8" customWidth="1"/>
-    <col min="24" max="24" width="13.75" style="8" customWidth="1"/>
-    <col min="25" max="26" width="17.125" style="8" customWidth="1"/>
-    <col min="27" max="30" width="9" style="8" customWidth="1"/>
-    <col min="31" max="31" width="11" style="8" customWidth="1"/>
-    <col min="32" max="32" width="8.375" style="8" customWidth="1"/>
-    <col min="33" max="33" width="16.25" style="8" customWidth="1"/>
-    <col min="34" max="34" width="19.625" style="8" customWidth="1"/>
-    <col min="35" max="35" width="24.875" style="8" customWidth="1"/>
-    <col min="36" max="16384" width="9" style="8"/>
+    <col min="16" max="18" width="19.25" style="8" customWidth="1"/>
+    <col min="19" max="19" width="14.875" style="8" customWidth="1"/>
+    <col min="20" max="20" width="17.125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="11" style="8" customWidth="1"/>
+    <col min="22" max="22" width="12.875" style="8" customWidth="1"/>
+    <col min="23" max="23" width="15" style="8" customWidth="1"/>
+    <col min="24" max="24" width="11" style="8" customWidth="1"/>
+    <col min="25" max="25" width="13.75" style="8" customWidth="1"/>
+    <col min="26" max="27" width="17.125" style="8" customWidth="1"/>
+    <col min="28" max="31" width="9" style="8" customWidth="1"/>
+    <col min="32" max="32" width="11" style="8" customWidth="1"/>
+    <col min="33" max="33" width="8.375" style="8" customWidth="1"/>
+    <col min="34" max="34" width="16.25" style="8" customWidth="1"/>
+    <col min="35" max="35" width="19.625" style="8" customWidth="1"/>
+    <col min="36" max="36" width="24.875" style="8" customWidth="1"/>
+    <col min="37" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1157,67 +1165,70 @@
         <v>13</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1270,13 +1281,13 @@
         <v>3</v>
       </c>
       <c r="R3" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S3" s="3">
         <v>1</v>
       </c>
       <c r="T3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U3" s="3">
         <v>3</v>
@@ -1288,7 +1299,7 @@
         <v>3</v>
       </c>
       <c r="X3" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y3" s="3">
         <v>1</v>
@@ -1297,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="AA3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="3">
         <v>3</v>
@@ -1323,8 +1334,11 @@
       <c r="AI3" s="3">
         <v>3</v>
       </c>
+      <c r="AJ3" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
@@ -1371,67 +1385,70 @@
         <v>130</v>
       </c>
       <c r="P4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AB4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AC4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AD4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AE4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AG4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AH4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AI4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AI4" s="4" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:36" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>70</v>
       </c>
@@ -1451,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="5">
         <v>0</v>
@@ -1460,13 +1477,13 @@
         <v>0</v>
       </c>
       <c r="T5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="5">
         <v>1</v>
       </c>
       <c r="V5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="5">
         <v>0</v>
@@ -1478,10 +1495,10 @@
         <v>0</v>
       </c>
       <c r="Z5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="5">
         <v>0</v>
@@ -1495,8 +1512,11 @@
       <c r="AE5" s="5">
         <v>0</v>
       </c>
+      <c r="AF5" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:36" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -1525,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="5">
         <v>0</v>
@@ -1534,19 +1554,19 @@
         <v>0</v>
       </c>
       <c r="T6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="5">
         <v>1</v>
       </c>
       <c r="V6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="5">
         <v>0</v>
       </c>
       <c r="X6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="5">
         <v>1</v>
@@ -1555,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="AA6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="5">
         <v>0</v>
@@ -1569,8 +1589,11 @@
       <c r="AE6" s="5">
         <v>0</v>
       </c>
+      <c r="AF6" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -1584,7 +1607,7 @@
         <v>67</v>
       </c>
       <c r="P7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="5">
         <v>0</v>
@@ -1596,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="T7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="5">
         <v>1</v>
       </c>
       <c r="V7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="5">
         <v>0</v>
@@ -1614,10 +1637,10 @@
         <v>0</v>
       </c>
       <c r="Z7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="5">
         <v>0</v>
@@ -1631,8 +1654,11 @@
       <c r="AE7" s="5">
         <v>0</v>
       </c>
+      <c r="AF7" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:36" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>78</v>
       </c>
@@ -1661,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="5">
         <v>0</v>
@@ -1670,19 +1696,19 @@
         <v>0</v>
       </c>
       <c r="T8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="5">
         <v>1</v>
       </c>
       <c r="V8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="5">
         <v>0</v>
       </c>
       <c r="X8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="5">
         <v>1</v>
@@ -1691,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="AA8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="5">
         <v>0</v>
@@ -1705,8 +1731,11 @@
       <c r="AE8" s="5">
         <v>0</v>
       </c>
+      <c r="AF8" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>82</v>
       </c>
@@ -1720,7 +1749,7 @@
         <v>67</v>
       </c>
       <c r="P9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="5">
         <v>0</v>
@@ -1732,13 +1761,13 @@
         <v>0</v>
       </c>
       <c r="T9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="5">
         <v>1</v>
       </c>
       <c r="V9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="5">
         <v>0</v>
@@ -1750,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="Z9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="5">
         <v>0</v>
@@ -1767,8 +1796,11 @@
       <c r="AE9" s="5">
         <v>0</v>
       </c>
+      <c r="AF9" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:36" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>84</v>
       </c>
@@ -1797,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="5">
         <v>0</v>
@@ -1806,19 +1838,19 @@
         <v>0</v>
       </c>
       <c r="T10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="5">
         <v>1</v>
       </c>
       <c r="V10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="5">
         <v>0</v>
       </c>
       <c r="X10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="5">
         <v>1</v>
@@ -1827,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="AA10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="5">
         <v>0</v>
@@ -1841,8 +1873,11 @@
       <c r="AE10" s="5">
         <v>0</v>
       </c>
+      <c r="AF10" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>88</v>
       </c>
@@ -1856,7 +1891,7 @@
         <v>67</v>
       </c>
       <c r="P11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="5">
         <v>0</v>
@@ -1868,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="T11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="5">
         <v>1</v>
       </c>
       <c r="V11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" s="5">
         <v>0</v>
@@ -1886,10 +1921,10 @@
         <v>0</v>
       </c>
       <c r="Z11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11" s="5">
         <v>0</v>
@@ -1903,8 +1938,11 @@
       <c r="AE11" s="5">
         <v>0</v>
       </c>
+      <c r="AF11" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>90</v>
       </c>
@@ -1918,7 +1956,7 @@
         <v>67</v>
       </c>
       <c r="P12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="5">
         <v>0</v>
@@ -1930,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="T12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="5">
         <v>1</v>
       </c>
       <c r="V12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="5">
         <v>0</v>
@@ -1965,8 +2003,11 @@
       <c r="AE12" s="5">
         <v>0</v>
       </c>
+      <c r="AF12" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:35" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>92</v>
       </c>
@@ -1980,7 +2021,7 @@
         <v>66</v>
       </c>
       <c r="P13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="5">
         <v>0</v>
@@ -1992,10 +2033,10 @@
         <v>0</v>
       </c>
       <c r="T13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="5">
         <v>0</v>
@@ -2027,8 +2068,11 @@
       <c r="AE13" s="5">
         <v>0</v>
       </c>
+      <c r="AF13" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:35" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>94</v>
       </c>
@@ -2042,7 +2086,7 @@
         <v>66</v>
       </c>
       <c r="P14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="5">
         <v>0</v>
@@ -2054,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="T14" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="5">
         <v>0</v>
@@ -2089,8 +2133,11 @@
       <c r="AE14" s="5">
         <v>0</v>
       </c>
+      <c r="AF14" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:35" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>96</v>
       </c>
@@ -2104,7 +2151,7 @@
         <v>66</v>
       </c>
       <c r="P15" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="5">
         <v>0</v>
@@ -2116,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="T15" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="5">
         <v>0</v>
@@ -2151,8 +2198,11 @@
       <c r="AE15" s="5">
         <v>0</v>
       </c>
+      <c r="AF15" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:35" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:36" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>98</v>
       </c>
@@ -2166,7 +2216,7 @@
         <v>67</v>
       </c>
       <c r="P16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="5">
         <v>0</v>
@@ -2178,13 +2228,13 @@
         <v>0</v>
       </c>
       <c r="T16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="5">
         <v>1</v>
       </c>
       <c r="V16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" s="5">
         <v>0</v>
@@ -2196,10 +2246,10 @@
         <v>0</v>
       </c>
       <c r="Z16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="5">
         <v>0</v>
@@ -2213,8 +2263,11 @@
       <c r="AE16" s="5">
         <v>0</v>
       </c>
+      <c r="AF16" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:32" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>100</v>
       </c>
@@ -2228,7 +2281,7 @@
         <v>67</v>
       </c>
       <c r="P17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="5">
         <v>0</v>
@@ -2240,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="T17" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="5">
         <v>1</v>
       </c>
       <c r="V17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="5">
         <v>0</v>
@@ -2258,10 +2311,10 @@
         <v>0</v>
       </c>
       <c r="Z17" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="5">
         <v>0</v>
@@ -2275,8 +2328,11 @@
       <c r="AE17" s="5">
         <v>0</v>
       </c>
+      <c r="AF17" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:32" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>102</v>
       </c>
@@ -2290,7 +2346,7 @@
         <v>66</v>
       </c>
       <c r="P18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="5">
         <v>0</v>
@@ -2302,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="T18" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="5">
         <v>0</v>
@@ -2337,8 +2393,11 @@
       <c r="AE18" s="5">
         <v>0</v>
       </c>
+      <c r="AF18" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:32" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>104</v>
       </c>
@@ -2352,7 +2411,7 @@
         <v>67</v>
       </c>
       <c r="P19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="5">
         <v>0</v>
@@ -2364,13 +2423,13 @@
         <v>0</v>
       </c>
       <c r="T19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="5">
         <v>1</v>
       </c>
       <c r="V19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="5">
         <v>0</v>
@@ -2399,8 +2458,11 @@
       <c r="AE19" s="5">
         <v>0</v>
       </c>
+      <c r="AF19" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:32" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>106</v>
       </c>
@@ -2435,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="Q20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="5">
         <v>0</v>
@@ -2444,19 +2506,19 @@
         <v>0</v>
       </c>
       <c r="T20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" s="5">
         <v>1</v>
       </c>
       <c r="V20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="5">
         <v>0</v>
       </c>
       <c r="X20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="5">
         <v>1</v>
@@ -2465,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="AA20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="5">
         <v>0</v>
@@ -2479,8 +2541,11 @@
       <c r="AE20" s="5">
         <v>0</v>
       </c>
+      <c r="AF20" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:32" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>112</v>
       </c>
@@ -2494,7 +2559,7 @@
         <v>67</v>
       </c>
       <c r="P21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="5">
         <v>0</v>
@@ -2518,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="5">
         <v>1</v>
@@ -2527,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="AA21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="5">
         <v>0</v>
@@ -2541,8 +2606,11 @@
       <c r="AE21" s="5">
         <v>0</v>
       </c>
+      <c r="AF21" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:32" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>114</v>
       </c>
@@ -2556,7 +2624,7 @@
         <v>67</v>
       </c>
       <c r="P22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="5">
         <v>0</v>
@@ -2580,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="5">
         <v>1</v>
@@ -2589,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="AA22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22" s="5">
         <v>0</v>
@@ -2603,8 +2671,11 @@
       <c r="AE22" s="5">
         <v>0</v>
       </c>
+      <c r="AF22" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:32" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>116</v>
       </c>
@@ -2624,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="6">
         <v>0</v>
@@ -2633,19 +2704,19 @@
         <v>0</v>
       </c>
       <c r="T23" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" s="6">
         <v>1</v>
       </c>
       <c r="V23" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" s="6">
         <v>0</v>
       </c>
       <c r="X23" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="6">
         <v>1</v>
@@ -2654,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="AA23" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23" s="6">
         <v>0</v>
@@ -2668,8 +2739,11 @@
       <c r="AE23" s="6">
         <v>0</v>
       </c>
+      <c r="AF23" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:31" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:32" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>117</v>
       </c>
@@ -2689,7 +2763,7 @@
         <v>1</v>
       </c>
       <c r="Q24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="6">
         <v>0</v>
@@ -2698,19 +2772,19 @@
         <v>0</v>
       </c>
       <c r="T24" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" s="6">
         <v>1</v>
       </c>
       <c r="V24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" s="6">
         <v>0</v>
       </c>
       <c r="X24" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="6">
         <v>1</v>
@@ -2719,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="AA24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" s="6">
         <v>0</v>
@@ -2733,8 +2807,11 @@
       <c r="AE24" s="6">
         <v>0</v>
       </c>
+      <c r="AF24" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:31" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:32" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>118</v>
       </c>
@@ -2754,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="Q25" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="6">
         <v>0</v>
@@ -2763,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="T25" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" s="6">
         <v>1</v>
       </c>
       <c r="V25" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" s="6">
         <v>0</v>
       </c>
       <c r="X25" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="6">
         <v>1</v>
@@ -2784,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="AA25" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="6">
         <v>0</v>
@@ -2798,8 +2875,11 @@
       <c r="AE25" s="6">
         <v>0</v>
       </c>
+      <c r="AF25" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:31" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:32" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>109</v>
       </c>
@@ -2813,7 +2893,7 @@
         <v>66</v>
       </c>
       <c r="P26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="7">
         <v>0</v>
@@ -2828,16 +2908,16 @@
         <v>0</v>
       </c>
       <c r="U26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="7">
         <v>0</v>
       </c>
-      <c r="X26" s="9">
-        <v>1</v>
+      <c r="X26" s="7">
+        <v>0</v>
       </c>
       <c r="Y26" s="9">
         <v>1</v>
@@ -2845,8 +2925,8 @@
       <c r="Z26" s="9">
         <v>1</v>
       </c>
-      <c r="AA26" s="7">
-        <v>0</v>
+      <c r="AA26" s="9">
+        <v>1</v>
       </c>
       <c r="AB26" s="7">
         <v>0</v>
@@ -2860,8 +2940,11 @@
       <c r="AE26" s="7">
         <v>0</v>
       </c>
+      <c r="AF26" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:31" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:32" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>119</v>
       </c>
@@ -2881,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="Q27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="7">
         <v>0</v>
@@ -2890,19 +2973,19 @@
         <v>0</v>
       </c>
       <c r="T27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="7">
         <v>1</v>
       </c>
       <c r="V27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="7">
         <v>0</v>
       </c>
-      <c r="X27" s="9">
-        <v>1</v>
+      <c r="X27" s="7">
+        <v>0</v>
       </c>
       <c r="Y27" s="9">
         <v>1</v>
@@ -2910,8 +2993,8 @@
       <c r="Z27" s="9">
         <v>1</v>
       </c>
-      <c r="AA27" s="7">
-        <v>0</v>
+      <c r="AA27" s="9">
+        <v>1</v>
       </c>
       <c r="AB27" s="7">
         <v>0</v>
@@ -2925,8 +3008,11 @@
       <c r="AE27" s="7">
         <v>0</v>
       </c>
+      <c r="AF27" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:31" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:32" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>121</v>
       </c>
@@ -2946,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="Q28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="7">
         <v>0</v>
@@ -2955,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="T28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" s="7">
         <v>1</v>
       </c>
       <c r="V28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="7">
         <v>0</v>
       </c>
-      <c r="X28" s="9">
-        <v>1</v>
+      <c r="X28" s="7">
+        <v>0</v>
       </c>
       <c r="Y28" s="9">
         <v>1</v>
@@ -2975,8 +3061,8 @@
       <c r="Z28" s="9">
         <v>1</v>
       </c>
-      <c r="AA28" s="7">
-        <v>0</v>
+      <c r="AA28" s="9">
+        <v>1</v>
       </c>
       <c r="AB28" s="7">
         <v>0</v>
@@ -2990,8 +3076,11 @@
       <c r="AE28" s="7">
         <v>0</v>
       </c>
+      <c r="AF28" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:31" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:32" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>123</v>
       </c>
@@ -3008,7 +3097,7 @@
         <v>124</v>
       </c>
       <c r="P29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="7">
         <v>0</v>
@@ -3020,19 +3109,19 @@
         <v>0</v>
       </c>
       <c r="T29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="7">
         <v>1</v>
       </c>
       <c r="V29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="7">
         <v>0</v>
       </c>
-      <c r="X29" s="9">
-        <v>1</v>
+      <c r="X29" s="7">
+        <v>0</v>
       </c>
       <c r="Y29" s="9">
         <v>1</v>
@@ -3040,8 +3129,8 @@
       <c r="Z29" s="9">
         <v>1</v>
       </c>
-      <c r="AA29" s="7">
-        <v>0</v>
+      <c r="AA29" s="9">
+        <v>1</v>
       </c>
       <c r="AB29" s="7">
         <v>0</v>
@@ -3055,8 +3144,11 @@
       <c r="AE29" s="7">
         <v>0</v>
       </c>
+      <c r="AF29" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:31" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:32" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>125</v>
       </c>
@@ -3070,7 +3162,7 @@
         <v>67</v>
       </c>
       <c r="P30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="7">
         <v>0</v>
@@ -3082,19 +3174,19 @@
         <v>0</v>
       </c>
       <c r="T30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="7">
         <v>1</v>
       </c>
       <c r="V30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="7">
         <v>0</v>
       </c>
-      <c r="X30" s="9">
-        <v>1</v>
+      <c r="X30" s="7">
+        <v>0</v>
       </c>
       <c r="Y30" s="9">
         <v>1</v>
@@ -3102,8 +3194,8 @@
       <c r="Z30" s="9">
         <v>1</v>
       </c>
-      <c r="AA30" s="7">
-        <v>0</v>
+      <c r="AA30" s="9">
+        <v>1</v>
       </c>
       <c r="AB30" s="7">
         <v>0</v>
@@ -3117,8 +3209,11 @@
       <c r="AE30" s="7">
         <v>0</v>
       </c>
+      <c r="AF30" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:31" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:32" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>127</v>
       </c>
@@ -3132,7 +3227,7 @@
         <v>67</v>
       </c>
       <c r="P31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="7">
         <v>0</v>
@@ -3144,19 +3239,19 @@
         <v>0</v>
       </c>
       <c r="T31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="7">
         <v>1</v>
       </c>
       <c r="V31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="7">
         <v>0</v>
       </c>
-      <c r="X31" s="9">
-        <v>1</v>
+      <c r="X31" s="7">
+        <v>0</v>
       </c>
       <c r="Y31" s="9">
         <v>1</v>
@@ -3164,8 +3259,8 @@
       <c r="Z31" s="9">
         <v>1</v>
       </c>
-      <c r="AA31" s="7">
-        <v>0</v>
+      <c r="AA31" s="9">
+        <v>1</v>
       </c>
       <c r="AB31" s="7">
         <v>0</v>
@@ -3177,6 +3272,9 @@
         <v>0</v>
       </c>
       <c r="AE31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="7">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/K-框架-玩家属性-(框架定义,后端维护).xlsx
+++ b/Resource/excel/K-框架-玩家属性-(框架定义,后端维护).xlsx
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M20" authorId="0" shapeId="0">
+    <comment ref="M10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O20" authorId="0" shapeId="0">
+    <comment ref="O10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="106">
   <si>
     <t>#class</t>
   </si>
@@ -326,60 +326,6 @@
     <t>exp</t>
   </si>
   <si>
-    <t>英雄列表</t>
-  </si>
-  <si>
-    <t>hero</t>
-  </si>
-  <si>
-    <t>Hero</t>
-  </si>
-  <si>
-    <t>英雄</t>
-  </si>
-  <si>
-    <t>出战的英雄</t>
-  </si>
-  <si>
-    <t>heroid</t>
-  </si>
-  <si>
-    <t>特效列表</t>
-  </si>
-  <si>
-    <t>effect</t>
-  </si>
-  <si>
-    <t>Effect</t>
-  </si>
-  <si>
-    <t>特效</t>
-  </si>
-  <si>
-    <t>选择的特效</t>
-  </si>
-  <si>
-    <t>effectid</t>
-  </si>
-  <si>
-    <t>脚印列表</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>Foot</t>
-  </si>
-  <si>
-    <t>脚印</t>
-  </si>
-  <si>
-    <t>选择的脚印</t>
-  </si>
-  <si>
-    <t>footid</t>
-  </si>
-  <si>
     <t>正在匹配的id</t>
   </si>
   <si>
@@ -404,30 +350,6 @@
     <t>roomserverid</t>
   </si>
   <si>
-    <t>签到天数( 7天 )</t>
-  </si>
-  <si>
-    <t>sevenday</t>
-  </si>
-  <si>
-    <t>签到奖励( 7天 )</t>
-  </si>
-  <si>
-    <t>sevenreward</t>
-  </si>
-  <si>
-    <t>签到时间(服务器使用)</t>
-  </si>
-  <si>
-    <t>signintime</t>
-  </si>
-  <si>
-    <t>连续签到次数</t>
-  </si>
-  <si>
-    <t>continuoussignin</t>
-  </si>
-  <si>
     <t>道具背包</t>
   </si>
   <si>
@@ -456,15 +378,6 @@
   </si>
   <si>
     <t>kill</t>
-  </si>
-  <si>
-    <t>英雄id</t>
-  </si>
-  <si>
-    <t>特效id</t>
-  </si>
-  <si>
-    <t>脚印id</t>
   </si>
   <si>
     <t>配置表id</t>
@@ -524,7 +437,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,7 +496,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,12 +518,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,11 +574,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -687,19 +594,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1075,45 +979,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="48.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="36.25" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="8" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="19.125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="22.625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="22.5" style="8" customWidth="1"/>
-    <col min="11" max="12" width="19.375" style="8" customWidth="1"/>
-    <col min="13" max="15" width="18.25" style="8" customWidth="1"/>
-    <col min="16" max="18" width="19.25" style="8" customWidth="1"/>
-    <col min="19" max="19" width="14.875" style="8" customWidth="1"/>
-    <col min="20" max="20" width="17.125" style="8" customWidth="1"/>
-    <col min="21" max="21" width="11" style="8" customWidth="1"/>
-    <col min="22" max="22" width="12.875" style="8" customWidth="1"/>
-    <col min="23" max="23" width="15" style="8" customWidth="1"/>
-    <col min="24" max="24" width="11" style="8" customWidth="1"/>
-    <col min="25" max="25" width="13.75" style="8" customWidth="1"/>
-    <col min="26" max="27" width="17.125" style="8" customWidth="1"/>
-    <col min="28" max="31" width="9" style="8" customWidth="1"/>
-    <col min="32" max="32" width="11" style="8" customWidth="1"/>
-    <col min="33" max="33" width="8.375" style="8" customWidth="1"/>
-    <col min="34" max="34" width="16.25" style="8" customWidth="1"/>
-    <col min="35" max="35" width="19.625" style="8" customWidth="1"/>
-    <col min="36" max="36" width="24.875" style="8" customWidth="1"/>
-    <col min="37" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="48.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="36.25" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="22.625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="7" customWidth="1"/>
+    <col min="11" max="12" width="19.375" style="7" customWidth="1"/>
+    <col min="13" max="15" width="18.25" style="7" customWidth="1"/>
+    <col min="16" max="18" width="19.25" style="7" customWidth="1"/>
+    <col min="19" max="19" width="14.875" style="7" customWidth="1"/>
+    <col min="20" max="20" width="17.125" style="7" customWidth="1"/>
+    <col min="21" max="21" width="11" style="7" customWidth="1"/>
+    <col min="22" max="22" width="12.875" style="7" customWidth="1"/>
+    <col min="23" max="23" width="15" style="7" customWidth="1"/>
+    <col min="24" max="24" width="11" style="7" customWidth="1"/>
+    <col min="25" max="25" width="13.75" style="7" customWidth="1"/>
+    <col min="26" max="27" width="17.125" style="7" customWidth="1"/>
+    <col min="28" max="31" width="9" style="7" customWidth="1"/>
+    <col min="32" max="32" width="11" style="7" customWidth="1"/>
+    <col min="33" max="33" width="8.375" style="7" customWidth="1"/>
+    <col min="34" max="34" width="16.25" style="7" customWidth="1"/>
+    <col min="35" max="35" width="19.625" style="7" customWidth="1"/>
+    <col min="36" max="36" width="24.875" style="7" customWidth="1"/>
+    <col min="37" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1159,13 +1063,13 @@
         <v>12</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>14</v>
@@ -1379,13 +1283,13 @@
         <v>44</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>45</v>
@@ -1421,7 +1325,7 @@
         <v>55</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="AC4" s="4" t="s">
         <v>56</v>
@@ -1516,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -1527,84 +1431,72 @@
         <v>73</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>1</v>
+      </c>
+      <c r="V6" s="5">
+        <v>1</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="P6" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>1</v>
-      </c>
-      <c r="R6" s="5">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5">
-        <v>0</v>
-      </c>
-      <c r="T6" s="5">
-        <v>0</v>
-      </c>
-      <c r="U6" s="5">
-        <v>1</v>
-      </c>
-      <c r="V6" s="5">
-        <v>1</v>
-      </c>
-      <c r="W6" s="5">
-        <v>0</v>
-      </c>
-      <c r="X6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P7" s="5">
         <v>1</v>
@@ -1625,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="5">
         <v>0</v>
@@ -1640,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="5">
         <v>0</v>
@@ -1658,36 +1550,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="P8" s="5">
         <v>1</v>
       </c>
       <c r="Q8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="5">
         <v>0</v>
@@ -1702,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="V8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="5">
         <v>0</v>
@@ -1711,13 +1591,13 @@
         <v>0</v>
       </c>
       <c r="Y8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="5">
         <v>0</v>
@@ -1735,18 +1615,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P9" s="5">
         <v>1</v>
@@ -1767,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="V9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="5">
         <v>0</v>
@@ -1782,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="5">
         <v>0</v>
@@ -1802,28 +1682,34 @@
     </row>
     <row r="10" spans="1:36" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>68</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>65</v>
       </c>
+      <c r="I10" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="J10" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="M10" s="5">
+        <v>100</v>
       </c>
       <c r="P10" s="5">
         <v>1</v>
@@ -1877,15 +1763,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>67</v>
@@ -1906,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="U11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="5">
         <v>0</v>
@@ -1918,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="Y11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="5">
         <v>1</v>
@@ -1944,13 +1830,13 @@
     </row>
     <row r="12" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>67</v>
@@ -1971,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="U12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="5">
         <v>0</v>
@@ -1983,13 +1869,13 @@
         <v>0</v>
       </c>
       <c r="Y12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" s="5">
         <v>0</v>
@@ -2007,1274 +1893,402 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:36" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <v>0</v>
+      </c>
+      <c r="S13" s="6">
+        <v>0</v>
+      </c>
+      <c r="T13" s="6">
+        <v>0</v>
+      </c>
+      <c r="U13" s="6">
+        <v>0</v>
+      </c>
+      <c r="V13" s="6">
+        <v>1</v>
+      </c>
+      <c r="W13" s="6">
+        <v>0</v>
+      </c>
+      <c r="X13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>1</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6">
+        <v>0</v>
+      </c>
+      <c r="T14" s="6">
+        <v>0</v>
+      </c>
+      <c r="U14" s="6">
+        <v>1</v>
+      </c>
+      <c r="V14" s="6">
+        <v>1</v>
+      </c>
+      <c r="W14" s="6">
+        <v>0</v>
+      </c>
+      <c r="X14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="P15" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>1</v>
+      </c>
+      <c r="R15" s="6">
+        <v>0</v>
+      </c>
+      <c r="S15" s="6">
+        <v>0</v>
+      </c>
+      <c r="T15" s="6">
+        <v>0</v>
+      </c>
+      <c r="U15" s="6">
+        <v>1</v>
+      </c>
+      <c r="V15" s="6">
+        <v>1</v>
+      </c>
+      <c r="W15" s="6">
+        <v>0</v>
+      </c>
+      <c r="X15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="P13" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>0</v>
-      </c>
-      <c r="R13" s="5">
-        <v>0</v>
-      </c>
-      <c r="S13" s="5">
-        <v>0</v>
-      </c>
-      <c r="T13" s="5">
-        <v>0</v>
-      </c>
-      <c r="U13" s="5">
-        <v>1</v>
-      </c>
-      <c r="V13" s="5">
-        <v>0</v>
-      </c>
-      <c r="W13" s="5">
-        <v>0</v>
-      </c>
-      <c r="X13" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="5">
+      <c r="J16" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0</v>
+      </c>
+      <c r="S16" s="6">
+        <v>0</v>
+      </c>
+      <c r="T16" s="6">
+        <v>0</v>
+      </c>
+      <c r="U16" s="6">
+        <v>1</v>
+      </c>
+      <c r="V16" s="6">
+        <v>1</v>
+      </c>
+      <c r="W16" s="6">
+        <v>0</v>
+      </c>
+      <c r="X16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="P14" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>0</v>
-      </c>
-      <c r="R14" s="5">
-        <v>0</v>
-      </c>
-      <c r="S14" s="5">
-        <v>0</v>
-      </c>
-      <c r="T14" s="5">
-        <v>0</v>
-      </c>
-      <c r="U14" s="5">
-        <v>1</v>
-      </c>
-      <c r="V14" s="5">
-        <v>0</v>
-      </c>
-      <c r="W14" s="5">
-        <v>0</v>
-      </c>
-      <c r="X14" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="5">
+    <row r="17" spans="1:32" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0</v>
+      </c>
+      <c r="S17" s="6">
+        <v>0</v>
+      </c>
+      <c r="T17" s="6">
+        <v>0</v>
+      </c>
+      <c r="U17" s="6">
+        <v>1</v>
+      </c>
+      <c r="V17" s="6">
+        <v>1</v>
+      </c>
+      <c r="W17" s="6">
+        <v>0</v>
+      </c>
+      <c r="X17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="P15" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>0</v>
-      </c>
-      <c r="R15" s="5">
-        <v>0</v>
-      </c>
-      <c r="S15" s="5">
-        <v>0</v>
-      </c>
-      <c r="T15" s="5">
-        <v>0</v>
-      </c>
-      <c r="U15" s="5">
-        <v>1</v>
-      </c>
-      <c r="V15" s="5">
-        <v>0</v>
-      </c>
-      <c r="W15" s="5">
-        <v>0</v>
-      </c>
-      <c r="X15" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+    <row r="18" spans="1:32" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="P16" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>0</v>
-      </c>
-      <c r="R16" s="5">
-        <v>0</v>
-      </c>
-      <c r="S16" s="5">
-        <v>0</v>
-      </c>
-      <c r="T16" s="5">
-        <v>0</v>
-      </c>
-      <c r="U16" s="5">
-        <v>1</v>
-      </c>
-      <c r="V16" s="5">
-        <v>1</v>
-      </c>
-      <c r="W16" s="5">
-        <v>0</v>
-      </c>
-      <c r="X16" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="P17" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>0</v>
-      </c>
-      <c r="R17" s="5">
-        <v>0</v>
-      </c>
-      <c r="S17" s="5">
-        <v>0</v>
-      </c>
-      <c r="T17" s="5">
-        <v>0</v>
-      </c>
-      <c r="U17" s="5">
-        <v>1</v>
-      </c>
-      <c r="V17" s="5">
-        <v>1</v>
-      </c>
-      <c r="W17" s="5">
-        <v>0</v>
-      </c>
-      <c r="X17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="P18" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>0</v>
-      </c>
-      <c r="R18" s="5">
-        <v>0</v>
-      </c>
-      <c r="S18" s="5">
-        <v>0</v>
-      </c>
-      <c r="T18" s="5">
-        <v>0</v>
-      </c>
-      <c r="U18" s="5">
-        <v>1</v>
-      </c>
-      <c r="V18" s="5">
-        <v>0</v>
-      </c>
-      <c r="W18" s="5">
-        <v>0</v>
-      </c>
-      <c r="X18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="P19" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>0</v>
-      </c>
-      <c r="R19" s="5">
-        <v>0</v>
-      </c>
-      <c r="S19" s="5">
-        <v>0</v>
-      </c>
-      <c r="T19" s="5">
-        <v>0</v>
-      </c>
-      <c r="U19" s="5">
-        <v>1</v>
-      </c>
-      <c r="V19" s="5">
-        <v>1</v>
-      </c>
-      <c r="W19" s="5">
-        <v>0</v>
-      </c>
-      <c r="X19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="M20" s="5">
-        <v>100</v>
-      </c>
-      <c r="P20" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>1</v>
-      </c>
-      <c r="R20" s="5">
-        <v>0</v>
-      </c>
-      <c r="S20" s="5">
-        <v>0</v>
-      </c>
-      <c r="T20" s="5">
-        <v>0</v>
-      </c>
-      <c r="U20" s="5">
-        <v>1</v>
-      </c>
-      <c r="V20" s="5">
-        <v>1</v>
-      </c>
-      <c r="W20" s="5">
-        <v>0</v>
-      </c>
-      <c r="X20" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="P21" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>0</v>
-      </c>
-      <c r="R21" s="5">
-        <v>0</v>
-      </c>
-      <c r="S21" s="5">
-        <v>0</v>
-      </c>
-      <c r="T21" s="5">
-        <v>0</v>
-      </c>
-      <c r="U21" s="5">
-        <v>0</v>
-      </c>
-      <c r="V21" s="5">
-        <v>0</v>
-      </c>
-      <c r="W21" s="5">
-        <v>0</v>
-      </c>
-      <c r="X21" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="P22" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>0</v>
-      </c>
-      <c r="R22" s="5">
-        <v>0</v>
-      </c>
-      <c r="S22" s="5">
-        <v>0</v>
-      </c>
-      <c r="T22" s="5">
-        <v>0</v>
-      </c>
-      <c r="U22" s="5">
-        <v>0</v>
-      </c>
-      <c r="V22" s="5">
-        <v>0</v>
-      </c>
-      <c r="W22" s="5">
-        <v>0</v>
-      </c>
-      <c r="X22" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P23" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>1</v>
-      </c>
-      <c r="R23" s="6">
-        <v>0</v>
-      </c>
-      <c r="S23" s="6">
-        <v>0</v>
-      </c>
-      <c r="T23" s="6">
-        <v>0</v>
-      </c>
-      <c r="U23" s="6">
-        <v>1</v>
-      </c>
-      <c r="V23" s="6">
-        <v>1</v>
-      </c>
-      <c r="W23" s="6">
-        <v>0</v>
-      </c>
-      <c r="X23" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P24" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>1</v>
-      </c>
-      <c r="R24" s="6">
-        <v>0</v>
-      </c>
-      <c r="S24" s="6">
-        <v>0</v>
-      </c>
-      <c r="T24" s="6">
-        <v>0</v>
-      </c>
-      <c r="U24" s="6">
-        <v>1</v>
-      </c>
-      <c r="V24" s="6">
-        <v>1</v>
-      </c>
-      <c r="W24" s="6">
-        <v>0</v>
-      </c>
-      <c r="X24" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P25" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>1</v>
-      </c>
-      <c r="R25" s="6">
-        <v>0</v>
-      </c>
-      <c r="S25" s="6">
-        <v>0</v>
-      </c>
-      <c r="T25" s="6">
-        <v>0</v>
-      </c>
-      <c r="U25" s="6">
-        <v>1</v>
-      </c>
-      <c r="V25" s="6">
-        <v>1</v>
-      </c>
-      <c r="W25" s="6">
-        <v>0</v>
-      </c>
-      <c r="X25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P26" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>0</v>
-      </c>
-      <c r="R26" s="7">
-        <v>0</v>
-      </c>
-      <c r="S26" s="7">
-        <v>0</v>
-      </c>
-      <c r="T26" s="7">
-        <v>0</v>
-      </c>
-      <c r="U26" s="7">
-        <v>0</v>
-      </c>
-      <c r="V26" s="7">
-        <v>1</v>
-      </c>
-      <c r="W26" s="7">
-        <v>0</v>
-      </c>
-      <c r="X26" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P27" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="7">
-        <v>1</v>
-      </c>
-      <c r="R27" s="7">
-        <v>0</v>
-      </c>
-      <c r="S27" s="7">
-        <v>0</v>
-      </c>
-      <c r="T27" s="7">
-        <v>0</v>
-      </c>
-      <c r="U27" s="7">
-        <v>1</v>
-      </c>
-      <c r="V27" s="7">
-        <v>1</v>
-      </c>
-      <c r="W27" s="7">
-        <v>0</v>
-      </c>
-      <c r="X27" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P28" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>1</v>
-      </c>
-      <c r="R28" s="7">
-        <v>0</v>
-      </c>
-      <c r="S28" s="7">
-        <v>0</v>
-      </c>
-      <c r="T28" s="7">
-        <v>0</v>
-      </c>
-      <c r="U28" s="7">
-        <v>1</v>
-      </c>
-      <c r="V28" s="7">
-        <v>1</v>
-      </c>
-      <c r="W28" s="7">
-        <v>0</v>
-      </c>
-      <c r="X28" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P29" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="7">
-        <v>0</v>
-      </c>
-      <c r="R29" s="7">
-        <v>0</v>
-      </c>
-      <c r="S29" s="7">
-        <v>0</v>
-      </c>
-      <c r="T29" s="7">
-        <v>0</v>
-      </c>
-      <c r="U29" s="7">
-        <v>1</v>
-      </c>
-      <c r="V29" s="7">
-        <v>1</v>
-      </c>
-      <c r="W29" s="7">
-        <v>0</v>
-      </c>
-      <c r="X29" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P30" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="7">
-        <v>0</v>
-      </c>
-      <c r="R30" s="7">
-        <v>0</v>
-      </c>
-      <c r="S30" s="7">
-        <v>0</v>
-      </c>
-      <c r="T30" s="7">
-        <v>0</v>
-      </c>
-      <c r="U30" s="7">
-        <v>1</v>
-      </c>
-      <c r="V30" s="7">
-        <v>1</v>
-      </c>
-      <c r="W30" s="7">
-        <v>0</v>
-      </c>
-      <c r="X30" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA30" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB30" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P31" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="7">
-        <v>0</v>
-      </c>
-      <c r="R31" s="7">
-        <v>0</v>
-      </c>
-      <c r="S31" s="7">
-        <v>0</v>
-      </c>
-      <c r="T31" s="7">
-        <v>0</v>
-      </c>
-      <c r="U31" s="7">
-        <v>1</v>
-      </c>
-      <c r="V31" s="7">
-        <v>1</v>
-      </c>
-      <c r="W31" s="7">
-        <v>0</v>
-      </c>
-      <c r="X31" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="7">
+      <c r="P18" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0</v>
+      </c>
+      <c r="R18" s="6">
+        <v>0</v>
+      </c>
+      <c r="S18" s="6">
+        <v>0</v>
+      </c>
+      <c r="T18" s="6">
+        <v>0</v>
+      </c>
+      <c r="U18" s="6">
+        <v>1</v>
+      </c>
+      <c r="V18" s="6">
+        <v>1</v>
+      </c>
+      <c r="W18" s="6">
+        <v>0</v>
+      </c>
+      <c r="X18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="6">
         <v>0</v>
       </c>
     </row>
